--- a/src/test/resources/test_data/hrm_data.xlsx
+++ b/src/test/resources/test_data/hrm_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="InvalidLoginTest" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Username</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>admin123</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
   </si>
 </sst>
 </file>
@@ -375,7 +378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -439,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,6 +466,9 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
